--- a/5_Analysis/5_1_Content_Analysis_Plot_&_Jaccard_Index/DATA/Depression_Matrix.xlsx
+++ b/5_Analysis/5_1_Content_Analysis_Plot_&_Jaccard_Index/DATA/Depression_Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y't\Desktop\内容分析参考文献\抑郁\R1\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\心理健康测量\MH_CPL\5_Analysis\5_1_Content_Analysis_Plot_&amp;_Jaccard_Index\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DB76ED-9F60-4ABE-B7B0-C760C86D4FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2947A5-F77A-4583-885B-0293E25CE878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{09EBA3F0-61B8-4B12-80A1-84B18EDA3BF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09EBA3F0-61B8-4B12-80A1-84B18EDA3BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -785,11 +785,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639DD2C7-1722-4948-837B-524694F1C577}">
   <dimension ref="A1:AE85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="R76" workbookViewId="0">
+      <selection activeCell="AE89" sqref="AE89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="29" max="29" width="49.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="AE84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.3">
